--- a/Code/Results/Cases/Case_1_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.08581413485667</v>
+        <v>19.80936873547465</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.340156100285697</v>
+        <v>3.568290086743094</v>
       </c>
       <c r="E2">
-        <v>42.52717414198208</v>
+        <v>29.69072338448435</v>
       </c>
       <c r="F2">
-        <v>16.8336766175577</v>
+        <v>19.30527164261118</v>
       </c>
       <c r="G2">
-        <v>2.023516347193951</v>
+        <v>3.588097124384748</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.46808468273359</v>
+        <v>12.42501740481856</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.0419782121279</v>
+        <v>17.05282932392036</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57598971278176</v>
+        <v>19.26206573308494</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.208631153073907</v>
+        <v>3.533650201644278</v>
       </c>
       <c r="E3">
-        <v>40.01737093666533</v>
+        <v>28.59691468878408</v>
       </c>
       <c r="F3">
-        <v>15.92022952215043</v>
+        <v>19.3196031058285</v>
       </c>
       <c r="G3">
-        <v>2.03114898068155</v>
+        <v>3.590844547852015</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.31476742705785</v>
+        <v>11.92829353618152</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.58321319359893</v>
+        <v>17.15160235732488</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.60447867076456</v>
+        <v>18.91857585666316</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.125884955535876</v>
+        <v>3.512500154624606</v>
       </c>
       <c r="E4">
-        <v>38.40691843684503</v>
+        <v>27.9079351199038</v>
       </c>
       <c r="F4">
-        <v>15.37443066806729</v>
+        <v>19.34006569217391</v>
       </c>
       <c r="G4">
-        <v>2.035947547362015</v>
+        <v>3.592617534756709</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.56866961396791</v>
+        <v>11.61153301778787</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.32940002043402</v>
+        <v>17.22137557870469</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19744815736747</v>
+        <v>18.77690396961934</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.09169853138888</v>
+        <v>3.503918660245035</v>
       </c>
       <c r="E5">
-        <v>37.73355013117673</v>
+        <v>27.62325643173564</v>
       </c>
       <c r="F5">
-        <v>15.15614301389986</v>
+        <v>19.35131250189764</v>
       </c>
       <c r="G5">
-        <v>2.037932702843274</v>
+        <v>3.593361757011936</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.25502756924301</v>
+        <v>11.47963179487107</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.23296119362964</v>
+        <v>17.2520766542692</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12919115425811</v>
+        <v>18.75328230804909</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.085994811725481</v>
+        <v>3.502496179422128</v>
       </c>
       <c r="E6">
-        <v>37.62071824325263</v>
+        <v>27.57576359453945</v>
       </c>
       <c r="F6">
-        <v>15.12015654061188</v>
+        <v>19.35335487235422</v>
       </c>
       <c r="G6">
-        <v>2.038264172484848</v>
+        <v>3.593486648348285</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.20236634751467</v>
+        <v>11.45756393325662</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.21736833942382</v>
+        <v>17.25731072047542</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.59903428499532</v>
+        <v>18.91667185148832</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.125425746343033</v>
+        <v>3.512384260751328</v>
       </c>
       <c r="E7">
-        <v>38.39790581080442</v>
+        <v>27.90411105447494</v>
       </c>
       <c r="F7">
-        <v>15.37146956724635</v>
+        <v>19.34020563126931</v>
       </c>
       <c r="G7">
-        <v>2.035974197682275</v>
+        <v>3.592627483573557</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.56447866474984</v>
+        <v>11.60976536500907</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.32807116372168</v>
+        <v>17.22178047764169</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.57447316455771</v>
+        <v>19.62230472810172</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.295237477491243</v>
+        <v>3.556326006481325</v>
       </c>
       <c r="E8">
-        <v>41.67638319334797</v>
+        <v>29.31744357267058</v>
       </c>
       <c r="F8">
-        <v>16.51578814836065</v>
+        <v>19.30777892870134</v>
       </c>
       <c r="G8">
-        <v>2.026125758104633</v>
+        <v>3.589026620468004</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.07825924371858</v>
+        <v>12.25626885970665</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.87801756292871</v>
+        <v>17.08497615652931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09554058189942</v>
+        <v>20.93992693783237</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.686211073899087</v>
+        <v>3.643114656589415</v>
       </c>
       <c r="E9">
-        <v>47.54449802030177</v>
+        <v>31.93343193812035</v>
       </c>
       <c r="F9">
-        <v>19.19103641554839</v>
+        <v>19.33761981838838</v>
       </c>
       <c r="G9">
-        <v>2.00762797850561</v>
+        <v>3.582644693788773</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.7490480833984</v>
+        <v>13.42536940863237</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.64914559206925</v>
+        <v>16.89027952557721</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.50536596111793</v>
+        <v>21.8591008359723</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.005236235176244</v>
+        <v>3.706822701170229</v>
       </c>
       <c r="E10">
-        <v>51.50718021631248</v>
+        <v>33.74000895413678</v>
       </c>
       <c r="F10">
-        <v>21.3137558198821</v>
+        <v>19.41739612810009</v>
       </c>
       <c r="G10">
-        <v>1.994420308991875</v>
+        <v>3.578365155256472</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>21.53566946095659</v>
+        <v>14.21816878375835</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.28684449802201</v>
+        <v>16.79361472127692</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.59466934128462</v>
+        <v>22.26507764915804</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.143891018172524</v>
+        <v>3.735702458092447</v>
       </c>
       <c r="E11">
-        <v>53.23447672964837</v>
+        <v>34.53329131447788</v>
       </c>
       <c r="F11">
-        <v>22.26778028266257</v>
+        <v>19.46634204532838</v>
       </c>
       <c r="G11">
-        <v>1.988466310870096</v>
+        <v>3.576506102808075</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.31190103637381</v>
+        <v>14.56349263014026</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.02406115346276</v>
+        <v>16.76001333753799</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.00002688731908</v>
+        <v>22.41694748478939</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.195492993138447</v>
+        <v>3.746616434545603</v>
       </c>
       <c r="E12">
-        <v>53.87783375021918</v>
+        <v>34.82933905372424</v>
       </c>
       <c r="F12">
-        <v>22.62754958908226</v>
+        <v>19.4866964474061</v>
       </c>
       <c r="G12">
-        <v>1.986216815259791</v>
+        <v>3.575814663661171</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.60073921553339</v>
+        <v>14.69198823055836</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.30228739367057</v>
+        <v>16.74880381653908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.91303963012622</v>
+        <v>22.3843242624571</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.184419296349082</v>
+        <v>3.744267019156004</v>
       </c>
       <c r="E13">
-        <v>53.73975034291203</v>
+        <v>34.76577697810927</v>
       </c>
       <c r="F13">
-        <v>22.55013001574147</v>
+        <v>19.48223188879772</v>
       </c>
       <c r="G13">
-        <v>1.98670110045085</v>
+        <v>3.575963020712857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.53875722644722</v>
+        <v>14.66441637204375</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.24240486459757</v>
+        <v>16.7511502732725</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.62816007450579</v>
+        <v>22.27761006936207</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.148154283122238</v>
+        <v>3.736600844535775</v>
       </c>
       <c r="E14">
-        <v>53.28762038735768</v>
+        <v>34.55773584097846</v>
       </c>
       <c r="F14">
-        <v>22.29740752892412</v>
+        <v>19.46798016438839</v>
       </c>
       <c r="G14">
-        <v>1.988281156418613</v>
+        <v>3.576448966711191</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.33576531666007</v>
+        <v>14.57410990464652</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.04696865468555</v>
+        <v>16.75906064166819</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.45274041421094</v>
+        <v>22.21199844487976</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.125824115656498</v>
+        <v>3.731901982742746</v>
       </c>
       <c r="E15">
-        <v>53.00928413813057</v>
+        <v>34.42973122699254</v>
       </c>
       <c r="F15">
-        <v>22.14241878482715</v>
+        <v>19.45948745374835</v>
       </c>
       <c r="G15">
-        <v>1.989249574032688</v>
+        <v>3.576748254090726</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.21076687328388</v>
+        <v>14.51849700715821</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.92714189980376</v>
+        <v>16.76410387631887</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.43316614396691</v>
+        <v>21.83231441030393</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.996046810527401</v>
+        <v>3.704932649698792</v>
       </c>
       <c r="E16">
-        <v>51.39278842309793</v>
+        <v>33.68756991403149</v>
       </c>
       <c r="F16">
-        <v>21.25118736804565</v>
+        <v>19.41445215257453</v>
       </c>
       <c r="G16">
-        <v>1.994810288630377</v>
+        <v>3.578488407923831</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.48421833056512</v>
+        <v>14.19528668550824</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.23852296712705</v>
+        <v>16.79602137067597</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.79598144591326</v>
+        <v>21.59618972779076</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.914793057148825</v>
+        <v>3.688356433784028</v>
       </c>
       <c r="E17">
-        <v>50.38187473670979</v>
+        <v>33.22478188067024</v>
       </c>
       <c r="F17">
-        <v>20.70157035386654</v>
+        <v>19.39006722729384</v>
       </c>
       <c r="G17">
-        <v>1.99823370594383</v>
+        <v>3.579578354697939</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.02925176873809</v>
+        <v>13.99303126967554</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.81419322448671</v>
+        <v>16.81827513310767</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44324206680743</v>
+        <v>21.45923868969885</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.86744706573154</v>
+        <v>3.678813138201886</v>
       </c>
       <c r="E18">
-        <v>49.79332157260122</v>
+        <v>32.95592478897822</v>
       </c>
       <c r="F18">
-        <v>20.38433748888889</v>
+        <v>19.37723316336388</v>
       </c>
       <c r="G18">
-        <v>2.00020804460275</v>
+        <v>3.580213525209847</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.76412063834813</v>
+        <v>13.87526019002454</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.56938352514056</v>
+        <v>16.83204986865226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32308388871886</v>
+        <v>21.41267763612082</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.851310835404651</v>
+        <v>3.675580613889919</v>
       </c>
       <c r="E19">
-        <v>49.59282567974475</v>
+        <v>32.86444328125152</v>
       </c>
       <c r="F19">
-        <v>20.2767336239828</v>
+        <v>19.37309233490993</v>
       </c>
       <c r="G19">
-        <v>2.000877504459825</v>
+        <v>3.58043000422531</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.67375568329241</v>
+        <v>13.83513998537443</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.48636246845213</v>
+        <v>16.83688047903524</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.86319594916385</v>
+        <v>21.62144429827523</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.923505709936767</v>
+        <v>3.690121997002212</v>
       </c>
       <c r="E20">
-        <v>50.49022275169871</v>
+        <v>33.27432506714696</v>
       </c>
       <c r="F20">
-        <v>20.76019165823796</v>
+        <v>19.39253971421764</v>
       </c>
       <c r="G20">
-        <v>1.997868749151657</v>
+        <v>3.579461473447535</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.07803941783383</v>
+        <v>14.01471116836439</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.85943999728676</v>
+        <v>16.81580510551154</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.71202797496514</v>
+        <v>22.30900609294507</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.158830483348506</v>
+        <v>3.738853246969117</v>
       </c>
       <c r="E21">
-        <v>53.42071206849054</v>
+        <v>34.6189624595447</v>
       </c>
       <c r="F21">
-        <v>22.37167721498254</v>
+        <v>19.47211688252623</v>
       </c>
       <c r="G21">
-        <v>1.987816938345159</v>
+        <v>3.576305892732996</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.39552622668061</v>
+        <v>14.60069722414514</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.10439687736685</v>
+        <v>16.75669589222289</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.87885838236659</v>
+        <v>22.74745225209211</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.307377680681182</v>
+        <v>3.770569363079272</v>
       </c>
       <c r="E22">
-        <v>55.27348970453867</v>
+        <v>35.47230731074177</v>
       </c>
       <c r="F22">
-        <v>23.41626906954073</v>
+        <v>19.53472788553469</v>
       </c>
       <c r="G22">
-        <v>1.981276093212351</v>
+        <v>3.574316619192155</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.22691122567012</v>
+        <v>14.97041143435527</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.9126809681876</v>
+        <v>16.72690245507497</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.25981706248741</v>
+        <v>22.51447946639619</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.228565686789374</v>
+        <v>3.753656470092796</v>
       </c>
       <c r="E23">
-        <v>54.29029303975389</v>
+        <v>35.01926338209692</v>
       </c>
       <c r="F23">
-        <v>22.85946314639128</v>
+        <v>19.50034239728674</v>
       </c>
       <c r="G23">
-        <v>1.98476540224705</v>
+        <v>3.575371668729784</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.78584718943869</v>
+        <v>14.7743210616531</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.48170265014002</v>
+        <v>16.7419878639483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.83226057831833</v>
+        <v>21.61003043511211</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.919568690530541</v>
+        <v>3.689323827037402</v>
       </c>
       <c r="E24">
-        <v>50.44126156273109</v>
+        <v>33.25193527641314</v>
       </c>
       <c r="F24">
-        <v>20.73369287427603</v>
+        <v>19.39141821130281</v>
       </c>
       <c r="G24">
-        <v>1.998033726701856</v>
+        <v>3.579514288836242</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.0559936360667</v>
+        <v>14.00491432745182</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.83898661300733</v>
+        <v>16.81691875180574</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18057958803314</v>
+        <v>20.59148768527281</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.562832323290974</v>
+        <v>3.61961466059787</v>
       </c>
       <c r="E25">
-        <v>46.01808460170295</v>
+        <v>31.24467807219973</v>
       </c>
       <c r="F25">
-        <v>18.39830680217294</v>
+        <v>19.31943411114393</v>
       </c>
       <c r="G25">
-        <v>2.012556003717546</v>
+        <v>3.584298950800937</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.05785106753424</v>
+        <v>13.12033619587173</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.03828516202123</v>
+        <v>16.93491181605881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.80936873547465</v>
+        <v>24.08581413485666</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.568290086743094</v>
+        <v>3.340156100285724</v>
       </c>
       <c r="E2">
-        <v>29.69072338448435</v>
+        <v>42.52717414198221</v>
       </c>
       <c r="F2">
-        <v>19.30527164261118</v>
+        <v>16.83367661755767</v>
       </c>
       <c r="G2">
-        <v>3.588097124384748</v>
+        <v>2.023516347193819</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.42501740481856</v>
+        <v>17.46808468273361</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.05282932392036</v>
+        <v>12.04197821212789</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.26206573308494</v>
+        <v>22.57598971278176</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.533650201644278</v>
+        <v>3.208631153073842</v>
       </c>
       <c r="E3">
-        <v>28.59691468878408</v>
+        <v>40.01737093666526</v>
       </c>
       <c r="F3">
-        <v>19.3196031058285</v>
+        <v>15.92022952215041</v>
       </c>
       <c r="G3">
-        <v>3.590844547852015</v>
+        <v>2.031148980681548</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.92829353618152</v>
+        <v>16.31476742705786</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.15160235732488</v>
+        <v>11.58321319359889</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91857585666316</v>
+        <v>21.60447867076453</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.512500154624606</v>
+        <v>3.125884955536013</v>
       </c>
       <c r="E4">
-        <v>27.9079351199038</v>
+        <v>38.40691843684503</v>
       </c>
       <c r="F4">
-        <v>19.34006569217391</v>
+        <v>15.37443066806725</v>
       </c>
       <c r="G4">
-        <v>3.592617534756709</v>
+        <v>2.035947547362014</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.61153301778787</v>
+        <v>15.56866961396793</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.22137557870469</v>
+        <v>11.32940002043401</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77690396961934</v>
+        <v>21.19744815736744</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.503918660245035</v>
+        <v>3.09169853138884</v>
       </c>
       <c r="E5">
-        <v>27.62325643173564</v>
+        <v>37.7335501311766</v>
       </c>
       <c r="F5">
-        <v>19.35131250189764</v>
+        <v>15.15614301389991</v>
       </c>
       <c r="G5">
-        <v>3.593361757011936</v>
+        <v>2.037932702843273</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.47963179487107</v>
+        <v>15.255027569243</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.2520766542692</v>
+        <v>11.23296119362966</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.75328230804909</v>
+        <v>21.12919115425813</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.502496179422128</v>
+        <v>3.085994811725441</v>
       </c>
       <c r="E6">
-        <v>27.57576359453945</v>
+        <v>37.62071824325243</v>
       </c>
       <c r="F6">
-        <v>19.35335487235422</v>
+        <v>15.12015654061192</v>
       </c>
       <c r="G6">
-        <v>3.593486648348285</v>
+        <v>2.038264172484712</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.45756393325662</v>
+        <v>15.20236634751462</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.25731072047542</v>
+        <v>11.21736833942385</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91667185148832</v>
+        <v>21.59903428499534</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.512384260751328</v>
+        <v>3.125425746343117</v>
       </c>
       <c r="E7">
-        <v>27.90411105447494</v>
+        <v>38.39790581080444</v>
       </c>
       <c r="F7">
-        <v>19.34020563126931</v>
+        <v>15.37146956724632</v>
       </c>
       <c r="G7">
-        <v>3.592627483573557</v>
+        <v>2.035974197682141</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.60976536500907</v>
+        <v>15.56447866474982</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.22178047764169</v>
+        <v>11.32807116372163</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.62230472810172</v>
+        <v>23.57447316455775</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.556326006481325</v>
+        <v>3.2952374774912</v>
       </c>
       <c r="E8">
-        <v>29.31744357267058</v>
+        <v>41.67638319334809</v>
       </c>
       <c r="F8">
-        <v>19.30777892870134</v>
+        <v>16.51578814836066</v>
       </c>
       <c r="G8">
-        <v>3.589026620468004</v>
+        <v>2.026125758104767</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.25626885970665</v>
+        <v>17.07825924371864</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.08497615652931</v>
+        <v>11.87801756292872</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.93992693783237</v>
+        <v>27.09554058189936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.643114656589415</v>
+        <v>3.686211073899045</v>
       </c>
       <c r="E9">
-        <v>31.93343193812035</v>
+        <v>47.54449802030181</v>
       </c>
       <c r="F9">
-        <v>19.33761981838838</v>
+        <v>19.19103641554832</v>
       </c>
       <c r="G9">
-        <v>3.582644693788773</v>
+        <v>2.007627978505743</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.42536940863237</v>
+        <v>19.74904808339841</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.89027952557721</v>
+        <v>13.64914559206919</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.8591008359723</v>
+        <v>29.5053659611179</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.706822701170229</v>
+        <v>4.005236235176251</v>
       </c>
       <c r="E10">
-        <v>33.74000895413678</v>
+        <v>51.50718021631258</v>
       </c>
       <c r="F10">
-        <v>19.41739612810009</v>
+        <v>21.31375581988198</v>
       </c>
       <c r="G10">
-        <v>3.578365155256472</v>
+        <v>1.994420308991875</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.21816878375835</v>
+        <v>21.5356694609566</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.79361472127692</v>
+        <v>15.28684449802189</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.26507764915804</v>
+        <v>30.59466934128454</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.735702458092447</v>
+        <v>4.143891018172501</v>
       </c>
       <c r="E11">
-        <v>34.53329131447788</v>
+        <v>53.23447672964819</v>
       </c>
       <c r="F11">
-        <v>19.46634204532838</v>
+        <v>22.26778028266261</v>
       </c>
       <c r="G11">
-        <v>3.576506102808075</v>
+        <v>1.988466310870097</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.56349263014026</v>
+        <v>22.31190103637371</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.76001333753799</v>
+        <v>16.02406115346278</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.41694748478939</v>
+        <v>31.00002688731913</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.746616434545603</v>
+        <v>4.195492993138465</v>
       </c>
       <c r="E12">
-        <v>34.82933905372424</v>
+        <v>53.87783375021912</v>
       </c>
       <c r="F12">
-        <v>19.4866964474061</v>
+        <v>22.62754958908211</v>
       </c>
       <c r="G12">
-        <v>3.575814663661171</v>
+        <v>1.986216815259789</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.69198823055836</v>
+        <v>22.6007392155334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.74880381653908</v>
+        <v>16.30228739367044</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.3843242624571</v>
+        <v>30.91303963012616</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.744267019156004</v>
+        <v>4.184419296349068</v>
       </c>
       <c r="E13">
-        <v>34.76577697810927</v>
+        <v>53.7397503429116</v>
       </c>
       <c r="F13">
-        <v>19.48223188879772</v>
+        <v>22.55013001574164</v>
       </c>
       <c r="G13">
-        <v>3.575963020712857</v>
+        <v>1.986701100450448</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.66441637204375</v>
+        <v>22.53875722644711</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.7511502732725</v>
+        <v>16.24240486459769</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.27761006936207</v>
+        <v>30.62816007450571</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.736600844535775</v>
+        <v>4.148154283122286</v>
       </c>
       <c r="E14">
-        <v>34.55773584097846</v>
+        <v>53.28762038735773</v>
       </c>
       <c r="F14">
-        <v>19.46798016438839</v>
+        <v>22.29740752892397</v>
       </c>
       <c r="G14">
-        <v>3.576448966711191</v>
+        <v>1.988281156418479</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.57410990464652</v>
+        <v>22.33576531666009</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.75906064166819</v>
+        <v>16.04696865468542</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.21199844487976</v>
+        <v>30.45274041421093</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.731901982742746</v>
+        <v>4.125824115656458</v>
       </c>
       <c r="E15">
-        <v>34.42973122699254</v>
+        <v>53.00928413813031</v>
       </c>
       <c r="F15">
-        <v>19.45948745374835</v>
+        <v>22.14241878482721</v>
       </c>
       <c r="G15">
-        <v>3.576748254090726</v>
+        <v>1.989249574032822</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.51849700715821</v>
+        <v>22.21076687328384</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.76410387631887</v>
+        <v>15.92714189980382</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.83231441030393</v>
+        <v>29.4331661439669</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.704932649698792</v>
+        <v>3.996046810527409</v>
       </c>
       <c r="E16">
-        <v>33.68756991403149</v>
+        <v>51.3927884230979</v>
       </c>
       <c r="F16">
-        <v>19.41445215257453</v>
+        <v>21.25118736804559</v>
       </c>
       <c r="G16">
-        <v>3.578488407923831</v>
+        <v>1.994810288630377</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.19528668550824</v>
+        <v>21.48421833056505</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.79602137067597</v>
+        <v>15.23852296712697</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.59618972779076</v>
+        <v>28.79598144591328</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.688356433784028</v>
+        <v>3.914793057148824</v>
       </c>
       <c r="E17">
-        <v>33.22478188067024</v>
+        <v>50.38187473670985</v>
       </c>
       <c r="F17">
-        <v>19.39006722729384</v>
+        <v>20.70157035386655</v>
       </c>
       <c r="G17">
-        <v>3.579578354697939</v>
+        <v>1.998233705943695</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.99303126967554</v>
+        <v>21.02925176873809</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.81827513310767</v>
+        <v>14.81419322448673</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.45923868969885</v>
+        <v>28.44324206680747</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.678813138201886</v>
+        <v>3.867447065731483</v>
       </c>
       <c r="E18">
-        <v>32.95592478897822</v>
+        <v>49.79332157260109</v>
       </c>
       <c r="F18">
-        <v>19.37723316336388</v>
+        <v>20.38433748888898</v>
       </c>
       <c r="G18">
-        <v>3.580213525209847</v>
+        <v>2.000208044602616</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.87526019002454</v>
+        <v>20.76412063834812</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.83204986865226</v>
+        <v>14.56938352514064</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.41267763612082</v>
+        <v>28.32308388871884</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.675580613889919</v>
+        <v>3.851310835404677</v>
       </c>
       <c r="E19">
-        <v>32.86444328125152</v>
+        <v>49.59282567974451</v>
       </c>
       <c r="F19">
-        <v>19.37309233490993</v>
+        <v>20.27673362398279</v>
       </c>
       <c r="G19">
-        <v>3.58043000422531</v>
+        <v>2.000877504459828</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.83513998537443</v>
+        <v>20.67375568329233</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.83688047903524</v>
+        <v>14.48636246845212</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.62144429827523</v>
+        <v>28.86319594916382</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.690121997002212</v>
+        <v>3.92350570993675</v>
       </c>
       <c r="E20">
-        <v>33.27432506714696</v>
+        <v>50.49022275169877</v>
       </c>
       <c r="F20">
-        <v>19.39253971421764</v>
+        <v>20.76019165823795</v>
       </c>
       <c r="G20">
-        <v>3.579461473447535</v>
+        <v>1.997868749151927</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.01471116836439</v>
+        <v>21.07803941783386</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.81580510551154</v>
+        <v>14.85943999728673</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.30900609294507</v>
+        <v>30.7120279749652</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.738853246969117</v>
+        <v>4.158830483348488</v>
       </c>
       <c r="E21">
-        <v>34.6189624595447</v>
+        <v>53.42071206849076</v>
       </c>
       <c r="F21">
-        <v>19.47211688252623</v>
+        <v>22.37167721498253</v>
       </c>
       <c r="G21">
-        <v>3.576305892732996</v>
+        <v>1.987816938345026</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.60069722414514</v>
+        <v>22.39552622668075</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.75669589222289</v>
+        <v>16.10439687736683</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.74745225209211</v>
+        <v>31.87885838236662</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.770569363079272</v>
+        <v>4.307377680681174</v>
       </c>
       <c r="E22">
-        <v>35.47230731074177</v>
+        <v>55.2734897045386</v>
       </c>
       <c r="F22">
-        <v>19.53472788553469</v>
+        <v>23.41626906954071</v>
       </c>
       <c r="G22">
-        <v>3.574316619192155</v>
+        <v>1.981276093212217</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.97041143435527</v>
+        <v>23.22691122567013</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.72690245507497</v>
+        <v>16.91268096818761</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.51447946639619</v>
+        <v>31.25981706248743</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.753656470092796</v>
+        <v>4.228565686789317</v>
       </c>
       <c r="E23">
-        <v>35.01926338209692</v>
+        <v>54.29029303975392</v>
       </c>
       <c r="F23">
-        <v>19.50034239728674</v>
+        <v>22.85946314639136</v>
       </c>
       <c r="G23">
-        <v>3.575371668729784</v>
+        <v>1.984765402247184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.7743210616531</v>
+        <v>22.78584718943872</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.7419878639483</v>
+        <v>16.48170265014008</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.61003043511211</v>
+        <v>28.83226057831832</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.689323827037402</v>
+        <v>3.919568690530443</v>
       </c>
       <c r="E24">
-        <v>33.25193527641314</v>
+        <v>50.44126156273073</v>
       </c>
       <c r="F24">
-        <v>19.39141821130281</v>
+        <v>20.73369287427607</v>
       </c>
       <c r="G24">
-        <v>3.579514288836242</v>
+        <v>1.998033726701857</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.00491432745182</v>
+        <v>21.05599363606659</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.81691875180574</v>
+        <v>14.83898661300732</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.59148768527281</v>
+        <v>26.18057958803314</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.61961466059787</v>
+        <v>3.562832323290922</v>
       </c>
       <c r="E25">
-        <v>31.24467807219973</v>
+        <v>46.01808460170278</v>
       </c>
       <c r="F25">
-        <v>19.31943411114393</v>
+        <v>18.39830680217302</v>
       </c>
       <c r="G25">
-        <v>3.584298950800937</v>
+        <v>2.012556003717546</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.12033619587173</v>
+        <v>19.05785106753421</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.93491181605881</v>
+        <v>13.03828516202129</v>
       </c>
     </row>
   </sheetData>
